--- a/on_call_rota_16people_colored.xlsx
+++ b/on_call_rota_16people_colored.xlsx
@@ -822,6 +822,11 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Study Leave</t>
+        </is>
+      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -1000,6 +1005,11 @@
           <t>On Call</t>
         </is>
       </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Sick Leave</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1224,6 +1234,11 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -1241,6 +1256,11 @@
           <t>Thursday</t>
         </is>
       </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -1258,6 +1278,11 @@
           <t>Friday</t>
         </is>
       </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -1392,6 +1417,11 @@
           <t>On Call</t>
         </is>
       </c>
+      <c r="M46" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1404,7 +1434,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="M47" s="3" t="inlineStr">
+      <c r="N47" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1426,7 +1456,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="M48" s="3" t="inlineStr">
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1533,7 +1563,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="N54" s="3" t="inlineStr">
+      <c r="M54" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1555,7 +1585,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="N55" s="3" t="inlineStr">
+      <c r="M55" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -2181,6 +2211,11 @@
           <t>Friday</t>
         </is>
       </c>
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="P88" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -2376,6 +2411,11 @@
           <t>Monday</t>
         </is>
       </c>
+      <c r="P98" s="5" t="inlineStr">
+        <is>
+          <t>Sick Leave</t>
+        </is>
+      </c>
       <c r="Q98" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -2398,6 +2438,11 @@
           <t>On Call</t>
         </is>
       </c>
+      <c r="P99" s="5" t="inlineStr">
+        <is>
+          <t>Sick Leave</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2856,6 +2901,11 @@
           <t>On Call</t>
         </is>
       </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2946,7 +2996,12 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K128" s="2" t="inlineStr">
+      <c r="K128" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="N128" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2963,7 +3018,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="N129" s="2" t="inlineStr">
+      <c r="K129" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3333,6 +3388,11 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="K149" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -3350,6 +3410,11 @@
           <t>Thursday</t>
         </is>
       </c>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
+        </is>
+      </c>
       <c r="L150" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
@@ -3365,6 +3430,11 @@
       <c r="B151" t="inlineStr">
         <is>
           <t>Friday</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>Annual Leave</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">

--- a/on_call_rota_16people_colored.xlsx
+++ b/on_call_rota_16people_colored.xlsx
@@ -564,7 +564,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -581,7 +581,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -598,7 +598,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -615,12 +615,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -637,12 +637,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -659,7 +659,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -676,7 +676,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -693,7 +693,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -727,7 +727,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -744,12 +744,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -766,12 +766,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -788,7 +788,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -805,7 +805,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -827,7 +827,7 @@
           <t>Study Leave</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -844,7 +844,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr">
+      <c r="M17" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -861,7 +861,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -883,7 +883,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -905,7 +905,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -922,7 +922,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -939,7 +939,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -956,14 +956,14 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -1000,14 +1000,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1044,7 +1044,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1083,7 +1083,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1100,7 +1100,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1117,7 +1117,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
+      <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1134,7 +1134,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="M32" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1151,12 +1151,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1173,12 +1173,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O34" s="4" t="inlineStr">
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1195,7 +1195,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1217,7 +1217,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1239,7 +1239,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1261,7 +1261,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1300,7 +1300,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="M40" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1322,7 +1322,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr">
+      <c r="M41" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1344,7 +1344,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1361,7 +1361,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="O43" s="2" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1378,7 +1378,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1395,7 +1395,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1412,7 +1412,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1434,7 +1434,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="N47" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1456,7 +1456,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="N48" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -1478,7 +1478,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="P49" s="2" t="inlineStr">
+      <c r="M49" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1495,7 +1495,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="P50" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1512,7 +1512,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="N51" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1529,7 +1529,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1546,7 +1546,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1563,12 +1563,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="M54" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R54" s="4" t="inlineStr">
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1585,12 +1585,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1607,7 +1607,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1624,7 +1624,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="R57" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1641,7 +1641,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1658,7 +1658,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1675,12 +1675,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>BH SM</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>BH UHB</t>
         </is>
@@ -1697,14 +1697,14 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="I61" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
         </is>
       </c>
     </row>
@@ -1719,14 +1719,14 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="I62" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
           <t>BH SM</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>BH UHB</t>
         </is>
@@ -1763,7 +1763,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="M64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1780,14 +1780,14 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
       <c r="L65" s="5" t="inlineStr">
         <is>
           <t>Conference</t>
-        </is>
-      </c>
-      <c r="N65" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="P67" s="2" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1841,7 +1841,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K68" s="4" t="inlineStr">
+      <c r="Q68" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1863,7 +1863,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K69" s="4" t="inlineStr">
+      <c r="Q69" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -1880,7 +1880,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="Q70" s="2" t="inlineStr">
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1897,7 +1897,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="R71" s="2" t="inlineStr">
+      <c r="M71" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1914,7 +1914,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="J72" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1948,7 +1948,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="M74" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1965,14 +1965,14 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="L75" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
-        </is>
-      </c>
-      <c r="M75" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
         </is>
       </c>
     </row>
@@ -1987,14 +1987,14 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="L76" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
-        </is>
-      </c>
-      <c r="M76" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2026,7 +2026,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2048,7 +2048,7 @@
           <t>Training</t>
         </is>
       </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="N79" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2065,7 +2065,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="I80" s="2" t="inlineStr">
+      <c r="P80" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2082,7 +2082,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="K81" s="2" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2099,12 +2099,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O82" s="4" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="K82" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2121,12 +2121,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O83" s="4" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2143,7 +2143,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2160,7 +2160,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2177,7 +2177,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="M86" s="2" t="inlineStr">
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2194,7 +2194,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="N87" s="2" t="inlineStr">
+      <c r="M87" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2238,7 +2238,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="Q89" s="4" t="inlineStr">
+      <c r="R89" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2260,7 +2260,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="Q90" s="4" t="inlineStr">
+      <c r="R90" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2277,12 +2277,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>BH SM</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>BH UHB</t>
         </is>
@@ -2299,7 +2299,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="O92" s="2" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2316,7 +2316,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="K93" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2350,7 +2350,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="G95" s="2" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2367,12 +2367,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R96" s="4" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O96" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2389,12 +2389,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R97" s="4" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O97" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2416,7 +2416,7 @@
           <t>Sick Leave</t>
         </is>
       </c>
-      <c r="Q98" s="2" t="inlineStr">
+      <c r="R98" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2433,14 +2433,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="P99" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
+        </is>
+      </c>
+      <c r="Q99" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr">
+      <c r="H100" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2472,7 +2472,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="I101" s="2" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2494,7 +2494,7 @@
           <t>Conference</t>
         </is>
       </c>
-      <c r="K102" s="2" t="inlineStr">
+      <c r="R102" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2555,7 +2555,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="R105" s="2" t="inlineStr">
+      <c r="O105" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2589,7 +2589,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2606,7 +2606,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="R108" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2623,7 +2623,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="M109" s="2" t="inlineStr">
+      <c r="K109" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2645,7 +2645,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="I110" s="4" t="inlineStr">
+      <c r="L110" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2667,7 +2667,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="I111" s="4" t="inlineStr">
+      <c r="L111" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2684,12 +2684,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>BH SM</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>BH UHB</t>
         </is>
@@ -2706,7 +2706,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="N113" s="2" t="inlineStr">
+      <c r="P113" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2723,7 +2723,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="O114" s="2" t="inlineStr">
+      <c r="N114" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2740,7 +2740,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="P115" s="2" t="inlineStr">
+      <c r="K115" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2757,7 +2757,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="Q116" s="2" t="inlineStr">
+      <c r="N116" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2774,12 +2774,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="F117" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="K117" s="4" t="inlineStr">
+      <c r="M117" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O117" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2796,12 +2796,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="K118" s="4" t="inlineStr">
+      <c r="M118" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O118" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2818,7 +2818,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="R119" s="2" t="inlineStr">
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2835,7 +2835,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="Q120" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2852,14 +2852,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="F121" s="5" t="inlineStr">
         <is>
           <t>Annual Leave</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -2896,14 +2896,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="F123" s="5" t="inlineStr">
         <is>
           <t>Annual Leave</t>
+        </is>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="L124" s="4" t="inlineStr">
+      <c r="K124" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2945,7 +2945,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="L125" s="4" t="inlineStr">
+      <c r="K125" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -2962,7 +2962,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="F126" s="2" t="inlineStr">
+      <c r="M126" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2979,7 +2979,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I127" s="2" t="inlineStr">
+      <c r="O127" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2996,14 +2996,14 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
       <c r="K128" s="5" t="inlineStr">
         <is>
           <t>Training</t>
-        </is>
-      </c>
-      <c r="N128" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="K129" s="2" t="inlineStr">
+      <c r="D129" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3035,7 +3035,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="P130" s="2" t="inlineStr">
+      <c r="O130" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3052,12 +3052,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="M131" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O131" s="4" t="inlineStr">
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3074,12 +3074,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="M132" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="O132" s="4" t="inlineStr">
+      <c r="F132" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3130,7 +3130,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="R135" s="2" t="inlineStr">
+      <c r="K135" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3147,7 +3147,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="D136" s="2" t="inlineStr">
+      <c r="G136" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3164,7 +3164,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
+      <c r="Q137" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3186,7 +3186,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="Q138" s="4" t="inlineStr">
+      <c r="R138" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3208,7 +3208,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="Q139" s="4" t="inlineStr">
+      <c r="R139" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3225,7 +3225,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="M140" s="2" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3276,7 +3276,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="G143" s="2" t="inlineStr">
+      <c r="M143" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3310,12 +3310,12 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R145" s="4" t="inlineStr">
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="Q145" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3332,12 +3332,12 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>WC SM</t>
-        </is>
-      </c>
-      <c r="R146" s="4" t="inlineStr">
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>WC SM</t>
+        </is>
+      </c>
+      <c r="Q146" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3354,7 +3354,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="Q147" s="2" t="inlineStr">
+      <c r="R147" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3371,7 +3371,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="I148" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3388,14 +3388,14 @@
           <t>Wednesday</t>
         </is>
       </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
       <c r="E149" s="5" t="inlineStr">
         <is>
           <t>Annual Leave</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="P150" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3437,7 +3437,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="M151" s="2" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3454,7 +3454,7 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="E152" s="3" t="inlineStr">
+      <c r="D152" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -3476,7 +3476,7 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
+      <c r="D153" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
         </is>
@@ -3498,7 +3498,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="N154" s="2" t="inlineStr">
+      <c r="Q154" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3515,7 +3515,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="O155" s="2" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3532,7 +3532,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="Q156" s="2" t="inlineStr">
+      <c r="R156" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3549,7 +3549,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="R157" s="2" t="inlineStr">
+      <c r="K157" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3566,7 +3566,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="G158" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3627,7 +3627,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="D161" s="2" t="inlineStr">
+      <c r="L161" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3644,7 +3644,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="E162" s="2" t="inlineStr">
+      <c r="O162" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3661,7 +3661,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="G163" s="2" t="inlineStr">
+      <c r="M163" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3678,7 +3678,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="K164" s="2" t="inlineStr">
+      <c r="I164" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3695,7 +3695,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="L165" s="2" t="inlineStr">
+      <c r="M165" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3717,7 +3717,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="I166" s="4" t="inlineStr">
+      <c r="Q166" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3739,7 +3739,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="I167" s="4" t="inlineStr">
+      <c r="Q167" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3756,7 +3756,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="P168" s="2" t="inlineStr">
+      <c r="N168" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3773,7 +3773,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="M169" s="2" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3790,7 +3790,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="N170" s="2" t="inlineStr">
+      <c r="D170" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3807,7 +3807,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="O171" s="2" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3824,7 +3824,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="P172" s="2" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3846,7 +3846,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K173" s="4" t="inlineStr">
+      <c r="I173" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3868,7 +3868,7 @@
           <t>WC SM</t>
         </is>
       </c>
-      <c r="K174" s="4" t="inlineStr">
+      <c r="I174" s="4" t="inlineStr">
         <is>
           <t>WC UHB</t>
         </is>
@@ -3902,7 +3902,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I176" s="2" t="inlineStr">
+      <c r="Q176" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3919,7 +3919,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="Q177" s="2" t="inlineStr">
+      <c r="H177" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3936,7 +3936,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="R178" s="2" t="inlineStr">
+      <c r="P178" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3953,7 +3953,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3970,14 +3970,14 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="L180" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
-        </is>
-      </c>
       <c r="M180" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O180" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
         </is>
       </c>
     </row>
@@ -3992,14 +3992,14 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="L181" s="4" t="inlineStr">
-        <is>
-          <t>WC UHB</t>
-        </is>
-      </c>
       <c r="M181" s="3" t="inlineStr">
         <is>
           <t>WC SM</t>
+        </is>
+      </c>
+      <c r="O181" s="4" t="inlineStr">
+        <is>
+          <t>WC UHB</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I183" s="2" t="inlineStr">
+      <c r="J183" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -4048,7 +4048,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K184" s="2" t="inlineStr">
+      <c r="N184" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>

--- a/on_call_rota_16people_colored.xlsx
+++ b/on_call_rota_16people_colored.xlsx
@@ -564,7 +564,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -581,7 +581,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -598,7 +598,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -659,7 +659,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -693,7 +693,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -710,7 +710,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -727,7 +727,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -805,7 +805,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -827,7 +827,7 @@
           <t>Study Leave</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -844,7 +844,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -861,7 +861,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
+      <c r="M18" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -939,7 +939,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -956,14 +956,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -978,14 +978,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1083,7 +1083,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1100,7 +1100,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1117,7 +1117,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1134,7 +1134,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1195,7 +1195,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1217,7 +1217,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1261,7 +1261,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1283,7 +1283,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1361,7 +1361,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I43" s="2" t="inlineStr">
+      <c r="O43" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1412,7 +1412,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1546,7 +1546,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1641,7 +1641,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1658,7 +1658,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="O59" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1802,7 +1802,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="O66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1819,7 +1819,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="O67" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -1948,7 +1948,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="M74" s="2" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2009,7 +2009,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="Q77" s="2" t="inlineStr">
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2048,7 +2048,7 @@
           <t>Training</t>
         </is>
       </c>
-      <c r="N79" s="2" t="inlineStr">
+      <c r="P79" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2065,7 +2065,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="P80" s="2" t="inlineStr">
+      <c r="N80" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2143,7 +2143,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2160,7 +2160,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I85" s="2" t="inlineStr">
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2177,7 +2177,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
+      <c r="O86" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2194,7 +2194,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M87" s="2" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2333,7 +2333,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="M94" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2433,14 +2433,14 @@
           <t>Tuesday</t>
         </is>
       </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
+        </is>
+      </c>
       <c r="P99" s="5" t="inlineStr">
         <is>
           <t>Sick Leave</t>
-        </is>
-      </c>
-      <c r="Q99" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="Q100" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2472,7 +2472,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2494,7 +2494,7 @@
           <t>Conference</t>
         </is>
       </c>
-      <c r="R102" s="2" t="inlineStr">
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2555,7 +2555,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="O105" s="2" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2572,7 +2572,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2589,7 +2589,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2606,7 +2606,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="R108" s="2" t="inlineStr">
+      <c r="I108" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2623,7 +2623,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="K109" s="2" t="inlineStr">
+      <c r="J109" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2706,7 +2706,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="P113" s="2" t="inlineStr">
+      <c r="N113" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2723,7 +2723,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="N114" s="2" t="inlineStr">
+      <c r="P114" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2818,7 +2818,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="R119" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2835,7 +2835,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="Q120" s="2" t="inlineStr">
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -2857,7 +2857,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="I121" s="2" t="inlineStr">
+      <c r="Q121" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3035,7 +3035,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="O130" s="2" t="inlineStr">
+      <c r="R130" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3113,7 +3113,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="K134" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3130,7 +3130,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="K135" s="2" t="inlineStr">
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3147,7 +3147,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="G136" s="2" t="inlineStr">
+      <c r="M136" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3164,7 +3164,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="Q137" s="2" t="inlineStr">
+      <c r="K137" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3242,7 +3242,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="O141" s="2" t="inlineStr">
+      <c r="I141" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3259,7 +3259,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
+      <c r="O142" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3276,7 +3276,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M143" s="2" t="inlineStr">
+      <c r="G143" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3293,7 +3293,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="I144" s="2" t="inlineStr">
+      <c r="O144" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3371,7 +3371,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="I148" s="2" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3388,14 +3388,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>On Call</t>
-        </is>
-      </c>
       <c r="E149" s="5" t="inlineStr">
         <is>
           <t>Annual Leave</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>On Call</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
           <t>Annual Leave</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="G151" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3532,7 +3532,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="R156" s="2" t="inlineStr">
+      <c r="I156" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3566,7 +3566,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="G158" s="2" t="inlineStr">
+      <c r="Q158" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3644,7 +3644,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="O162" s="2" t="inlineStr">
+      <c r="R162" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3661,7 +3661,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="M163" s="2" t="inlineStr">
+      <c r="O163" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3678,7 +3678,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="I164" s="2" t="inlineStr">
+      <c r="G164" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3773,7 +3773,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="M169" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3824,7 +3824,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3885,7 +3885,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
+      <c r="Q175" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3902,7 +3902,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="Q176" s="2" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3919,7 +3919,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="H177" s="2" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3936,7 +3936,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="P178" s="2" t="inlineStr">
+      <c r="H178" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -3953,7 +3953,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -4014,7 +4014,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="G182" s="2" t="inlineStr">
+      <c r="N182" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -4031,7 +4031,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
+      <c r="P183" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
@@ -4048,7 +4048,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="N184" s="2" t="inlineStr">
+      <c r="J184" s="2" t="inlineStr">
         <is>
           <t>On Call</t>
         </is>
